--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plaur</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H2">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I2">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J2">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N2">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O2">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P2">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q2">
-        <v>151.7149387839732</v>
+        <v>61.07332542770201</v>
       </c>
       <c r="R2">
-        <v>151.7149387839732</v>
+        <v>549.659928849318</v>
       </c>
       <c r="S2">
-        <v>0.09900822000304606</v>
+        <v>0.0267904355990471</v>
       </c>
       <c r="T2">
-        <v>0.09900822000304606</v>
+        <v>0.0267904355990471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H3">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I3">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J3">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N3">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O3">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P3">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q3">
-        <v>61.33142208674824</v>
+        <v>23.803728548214</v>
       </c>
       <c r="R3">
-        <v>61.33142208674824</v>
+        <v>214.233556933926</v>
       </c>
       <c r="S3">
-        <v>0.040024502397294</v>
+        <v>0.0104417477224659</v>
       </c>
       <c r="T3">
-        <v>0.040024502397294</v>
+        <v>0.0104417477224659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H4">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I4">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J4">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N4">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O4">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P4">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q4">
-        <v>354.3573912119238</v>
+        <v>140.767640870575</v>
       </c>
       <c r="R4">
-        <v>354.3573912119238</v>
+        <v>1266.908767835175</v>
       </c>
       <c r="S4">
-        <v>0.2312514168349112</v>
+        <v>0.06174915793044986</v>
       </c>
       <c r="T4">
-        <v>0.2312514168349112</v>
+        <v>0.06174915793044988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H5">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I5">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J5">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N5">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O5">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P5">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q5">
-        <v>461.3930430887527</v>
+        <v>203.663611580795</v>
       </c>
       <c r="R5">
-        <v>461.3930430887527</v>
+        <v>1832.972504227155</v>
       </c>
       <c r="S5">
-        <v>0.3011022136920366</v>
+        <v>0.08933911542746548</v>
       </c>
       <c r="T5">
-        <v>0.3011022136920366</v>
+        <v>0.08933911542746549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H6">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I6">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J6">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.588970884992</v>
+        <v>4.897192666666666</v>
       </c>
       <c r="N6">
-        <v>4.588970884992</v>
+        <v>14.691578</v>
       </c>
       <c r="O6">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="P6">
-        <v>0.04088502615105332</v>
+        <v>0.04059127190309041</v>
       </c>
       <c r="Q6">
-        <v>43.85541360688521</v>
+        <v>18.163447638226</v>
       </c>
       <c r="R6">
-        <v>43.85541360688521</v>
+        <v>163.471028744034</v>
       </c>
       <c r="S6">
-        <v>0.02861976858388157</v>
+        <v>0.007967581113371631</v>
       </c>
       <c r="T6">
-        <v>0.02861976858388157</v>
+        <v>0.007967581113371631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H7">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J7">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.8752450299247</v>
+        <v>16.46646866666667</v>
       </c>
       <c r="N7">
-        <v>15.8752450299247</v>
+        <v>49.399406</v>
       </c>
       <c r="O7">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387753</v>
       </c>
       <c r="P7">
-        <v>0.1414390774030771</v>
+        <v>0.1364853197387752</v>
       </c>
       <c r="Q7">
-        <v>65.01879271033404</v>
+        <v>169.3361634503482</v>
       </c>
       <c r="R7">
-        <v>65.01879271033404</v>
+        <v>1524.025471053134</v>
       </c>
       <c r="S7">
-        <v>0.042430857400031</v>
+        <v>0.07428103103500787</v>
       </c>
       <c r="T7">
-        <v>0.042430857400031</v>
+        <v>0.07428103103500787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H8">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J8">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.41763666429214</v>
+        <v>6.417914</v>
       </c>
       <c r="N8">
-        <v>6.41763666429214</v>
+        <v>19.253742</v>
       </c>
       <c r="O8">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615224</v>
       </c>
       <c r="P8">
-        <v>0.05717736055063251</v>
+        <v>0.05319604719615223</v>
       </c>
       <c r="Q8">
-        <v>26.28412898064286</v>
+        <v>65.99987866944866</v>
       </c>
       <c r="R8">
-        <v>26.28412898064286</v>
+        <v>593.998908025038</v>
       </c>
       <c r="S8">
-        <v>0.01715285815333851</v>
+        <v>0.02895151830453254</v>
       </c>
       <c r="T8">
-        <v>0.01715285815333851</v>
+        <v>0.02895151830453254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H9">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I9">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J9">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0794758824926</v>
+        <v>37.95349166666666</v>
       </c>
       <c r="N9">
-        <v>37.0794758824926</v>
+        <v>113.860475</v>
       </c>
       <c r="O9">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="P9">
-        <v>0.3303562779360941</v>
+        <v>0.3145844169863869</v>
       </c>
       <c r="Q9">
-        <v>151.8630264709087</v>
+        <v>390.3021830896972</v>
       </c>
       <c r="R9">
-        <v>151.8630264709087</v>
+        <v>3512.719647807275</v>
       </c>
       <c r="S9">
-        <v>0.09910486110118297</v>
+        <v>0.1712100238034388</v>
       </c>
       <c r="T9">
-        <v>0.09910486110118297</v>
+        <v>0.1712100238034388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H10">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I10">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J10">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.2795410448422</v>
+        <v>54.91137833333332</v>
       </c>
       <c r="N10">
-        <v>48.2795410448422</v>
+        <v>164.734135</v>
       </c>
       <c r="O10">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="P10">
-        <v>0.430142257959143</v>
+        <v>0.4551429441755952</v>
       </c>
       <c r="Q10">
-        <v>197.7341115319811</v>
+        <v>564.6919400247793</v>
       </c>
       <c r="R10">
-        <v>197.7341115319811</v>
+        <v>5082.227460223015</v>
       </c>
       <c r="S10">
-        <v>0.1290400442671064</v>
+        <v>0.2477078650391094</v>
       </c>
       <c r="T10">
-        <v>0.1290400442671064</v>
+        <v>0.2477078650391095</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.28369633333333</v>
+      </c>
+      <c r="H11">
+        <v>30.851089</v>
+      </c>
+      <c r="I11">
+        <v>0.5442419095121536</v>
+      </c>
+      <c r="J11">
+        <v>0.5442419095121537</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.897192666666666</v>
+      </c>
+      <c r="N11">
+        <v>14.691578</v>
+      </c>
+      <c r="O11">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="P11">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="Q11">
+        <v>50.36124226982689</v>
+      </c>
+      <c r="R11">
+        <v>453.251180428442</v>
+      </c>
+      <c r="S11">
+        <v>0.02209147133006495</v>
+      </c>
+      <c r="T11">
+        <v>0.02209147133006496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H12">
+        <v>14.708411</v>
+      </c>
+      <c r="I12">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J12">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16.46646866666667</v>
+      </c>
+      <c r="N12">
+        <v>49.399406</v>
+      </c>
+      <c r="O12">
+        <v>0.1364853197387753</v>
+      </c>
+      <c r="P12">
+        <v>0.1364853197387752</v>
+      </c>
+      <c r="Q12">
+        <v>80.73186295598511</v>
+      </c>
+      <c r="R12">
+        <v>726.586766603866</v>
+      </c>
+      <c r="S12">
+        <v>0.03541385310472027</v>
+      </c>
+      <c r="T12">
+        <v>0.03541385310472026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.09560876621269</v>
-      </c>
-      <c r="H11">
-        <v>4.09560876621269</v>
-      </c>
-      <c r="I11">
-        <v>0.2999938784888306</v>
-      </c>
-      <c r="J11">
-        <v>0.2999938784888306</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.588970884992</v>
-      </c>
-      <c r="N11">
-        <v>4.588970884992</v>
-      </c>
-      <c r="O11">
-        <v>0.04088502615105332</v>
-      </c>
-      <c r="P11">
-        <v>0.04088502615105332</v>
-      </c>
-      <c r="Q11">
-        <v>18.79462938446804</v>
-      </c>
-      <c r="R11">
-        <v>18.79462938446804</v>
-      </c>
-      <c r="S11">
-        <v>0.01226525756717175</v>
-      </c>
-      <c r="T11">
-        <v>0.01226525756717175</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H13">
+        <v>14.708411</v>
+      </c>
+      <c r="I13">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J13">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.417914</v>
+      </c>
+      <c r="N13">
+        <v>19.253742</v>
+      </c>
+      <c r="O13">
+        <v>0.05319604719615224</v>
+      </c>
+      <c r="P13">
+        <v>0.05319604719615223</v>
+      </c>
+      <c r="Q13">
+        <v>31.46577229155133</v>
+      </c>
+      <c r="R13">
+        <v>283.191950623962</v>
+      </c>
+      <c r="S13">
+        <v>0.01380278116915379</v>
+      </c>
+      <c r="T13">
+        <v>0.01380278116915379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H14">
+        <v>14.708411</v>
+      </c>
+      <c r="I14">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J14">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>37.95349166666666</v>
+      </c>
+      <c r="N14">
+        <v>113.860475</v>
+      </c>
+      <c r="O14">
+        <v>0.3145844169863869</v>
+      </c>
+      <c r="P14">
+        <v>0.3145844169863869</v>
+      </c>
+      <c r="Q14">
+        <v>186.0785181061361</v>
+      </c>
+      <c r="R14">
+        <v>1674.706662955225</v>
+      </c>
+      <c r="S14">
+        <v>0.08162523525249826</v>
+      </c>
+      <c r="T14">
+        <v>0.08162523525249826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H15">
+        <v>14.708411</v>
+      </c>
+      <c r="I15">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J15">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.91137833333332</v>
+      </c>
+      <c r="N15">
+        <v>164.734135</v>
+      </c>
+      <c r="O15">
+        <v>0.4551429441755952</v>
+      </c>
+      <c r="P15">
+        <v>0.4551429441755952</v>
+      </c>
+      <c r="Q15">
+        <v>269.2197070343872</v>
+      </c>
+      <c r="R15">
+        <v>2422.977363309485</v>
+      </c>
+      <c r="S15">
+        <v>0.1180959637090202</v>
+      </c>
+      <c r="T15">
+        <v>0.1180959637090202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H16">
+        <v>14.708411</v>
+      </c>
+      <c r="I16">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J16">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.897192666666666</v>
+      </c>
+      <c r="N16">
+        <v>14.691578</v>
+      </c>
+      <c r="O16">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="P16">
+        <v>0.04059127190309041</v>
+      </c>
+      <c r="Q16">
+        <v>24.00997416250644</v>
+      </c>
+      <c r="R16">
+        <v>216.089767462558</v>
+      </c>
+      <c r="S16">
+        <v>0.01053221945965382</v>
+      </c>
+      <c r="T16">
+        <v>0.01053221945965382</v>
       </c>
     </row>
   </sheetData>
